--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1434861.82787685</v>
+        <v>1394898.544937656</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478708</v>
+        <v>8362709.488478709</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8437360.172839539</v>
+        <v>8437360.172839537</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +673,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>95.46218135097749</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>230.6992324161051</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>60.09118670082915</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>52.74848097608477</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>83.51289199636497</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>240.1685615221494</v>
+        <v>128.4778061762884</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>183.4693513325733</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>25.17354161800006</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>32.94517566205834</v>
       </c>
       <c r="U9" t="n">
-        <v>106.0311077711177</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>84.8181614930057</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>214.8742669162701</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
-        <v>92.23683576037105</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U12" t="n">
         <v>225.8957288909827</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="F13" t="n">
-        <v>71.25280406479364</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>70.9035858141155</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>111.8663810778376</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>165.7871920939307</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1694,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,7 +1703,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>65.50479675552441</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>85.73493885277919</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>55.79392308257763</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>174.8805321890345</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>250.312915998863</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1940,10 +1940,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>54.55879030882556</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
-        <v>159.3388108552989</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>141.6059242355808</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.4297492890001</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>266.2782072768734</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>121.8423286676191</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>123.3277290573763</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>154.1918883064001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>160.3464122475378</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>27.18189894884222</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951727</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>187.4835994426808</v>
+        <v>74.15307578127808</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>287.1577117094692</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>198.1199118778345</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>108.2912514701849</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>100.8367104035708</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>123.441584287143</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>111.0308288438517</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>57.68170845365354</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>59.25731814671254</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>56.02127570389438</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0.4026817847180336</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
         <v>225.8957288909827</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.298635705472345</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>153.9561866171907</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>265.4416315728236</v>
       </c>
       <c r="C32" t="n">
-        <v>274.5802939734849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>39.2581443682111</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>43.76331341951682</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>74.15307578127806</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>220.8871739987544</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.4184586216305</v>
@@ -3325,13 +3325,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>162.6247315267511</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>153.5645005822662</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>107.1270182415729</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
-        <v>92.23683576037105</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
         <v>225.8957288909827</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>47.47529300550363</v>
+        <v>7.474574650667191</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>372.3372057966914</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>250.3129159988634</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>43.76331341951727</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.32828347083539</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>153.9306094709477</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>291.5193514571897</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>21.35983013989008</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>17.79417311172757</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>10.28699850038262</v>
       </c>
       <c r="I43" t="n">
-        <v>116.0152310063692</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>118.3282343629909</v>
+        <v>66.11438469361848</v>
       </c>
     </row>
     <row r="45">
@@ -4067,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>123.3277290573763</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>65.90747854024177</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>154.1918883064001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.59719675730217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>115.7075889192809</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6530896684844</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>728.9050472788936</v>
+        <v>641.3909951282167</v>
       </c>
       <c r="C3" t="n">
-        <v>728.9050472788936</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>728.9050472788936</v>
+        <v>809.6063321482848</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>359.156365563381</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>115.7075889192809</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>366.1018663125844</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>366.1018663125844</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X5" t="n">
-        <v>366.1018663125844</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y5" t="n">
-        <v>366.1018663125844</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>486.3105406908639</v>
+        <v>834.2815937164055</v>
       </c>
       <c r="X6" t="n">
-        <v>486.3105406908639</v>
+        <v>626.4300935108727</v>
       </c>
       <c r="Y6" t="n">
-        <v>278.55024192591</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>649.1947276839472</v>
+        <v>762.5638632763679</v>
       </c>
       <c r="C9" t="n">
-        <v>474.7416984028202</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4895,10 +4895,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>930.7792002964359</v>
       </c>
       <c r="U9" t="n">
-        <v>856.9550264489012</v>
+        <v>930.7792002964359</v>
       </c>
       <c r="V9" t="n">
-        <v>856.9550264489012</v>
+        <v>930.7792002964359</v>
       </c>
       <c r="W9" t="n">
-        <v>856.9550264489012</v>
+        <v>930.7792002964359</v>
       </c>
       <c r="X9" t="n">
-        <v>856.9550264489012</v>
+        <v>930.7792002964359</v>
       </c>
       <c r="Y9" t="n">
-        <v>649.1947276839472</v>
+        <v>930.7792002964359</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1580.023886607396</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="C11" t="n">
-        <v>1211.061369666984</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="D11" t="n">
-        <v>852.7956710602338</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="E11" t="n">
-        <v>467.0074184619895</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F11" t="n">
-        <v>467.0074184619895</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G11" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
         <v>48.81975253256327</v>
@@ -5068,25 +5068,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T11" t="n">
-        <v>2223.942912571325</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U11" t="n">
-        <v>1970.163218583208</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V11" t="n">
-        <v>1970.163218583208</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W11" t="n">
-        <v>1970.163218583208</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.163218583208</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.023886607396</v>
+        <v>1455.251792695598</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
@@ -5123,10 +5123,10 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>161.1406371339194</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L12" t="n">
-        <v>540.2677802593126</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M12" t="n">
         <v>1034.670495654875</v>
@@ -5147,25 +5147,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C13" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D13" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E13" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
         <v>48.81975253256327</v>
@@ -5208,43 +5208,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V13" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W13" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X13" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.638169680758</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>489.4020531235967</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="C14" t="n">
-        <v>120.439536183185</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="D14" t="n">
-        <v>120.439536183185</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="E14" t="n">
-        <v>120.439536183185</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="F14" t="n">
-        <v>48.81975253256327</v>
+        <v>580.0037629850578</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81975253256327</v>
+        <v>161.8160970556316</v>
       </c>
       <c r="H14" t="n">
         <v>48.81975253256327</v>
@@ -5278,13 +5278,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5308,22 +5308,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2190.61837996229</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>1936.838685974173</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V14" t="n">
-        <v>1605.775798630602</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W14" t="n">
-        <v>1253.007143360488</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="X14" t="n">
-        <v>879.5413850994084</v>
+        <v>990.9896677746653</v>
       </c>
       <c r="Y14" t="n">
-        <v>489.4020531235967</v>
+        <v>990.9896677746653</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>722.9380983681116</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>548.4850690869846</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H15" t="n">
         <v>114.9862139017798</v>
@@ -5357,7 +5357,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
         <v>161.1406371339193</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>602.8128707069468</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>602.8128707069468</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>602.8128707069468</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>602.8128707069468</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>455.9229232090364</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
         <v>48.81975253256327</v>
@@ -5457,31 +5457,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>602.8128707069468</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T16" t="n">
-        <v>602.8128707069468</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U16" t="n">
-        <v>602.8128707069468</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="V16" t="n">
-        <v>602.8128707069468</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="W16" t="n">
-        <v>602.8128707069468</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="X16" t="n">
-        <v>602.8128707069468</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="Y16" t="n">
-        <v>602.8128707069468</v>
+        <v>135.4207008687039</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>407.0854511393138</v>
+        <v>1423.602842403155</v>
       </c>
       <c r="C17" t="n">
-        <v>407.0854511393138</v>
+        <v>1054.640325462743</v>
       </c>
       <c r="D17" t="n">
-        <v>48.81975253256327</v>
+        <v>1054.640325462743</v>
       </c>
       <c r="E17" t="n">
-        <v>48.81975253256327</v>
+        <v>1054.640325462743</v>
       </c>
       <c r="F17" t="n">
-        <v>48.81975253256327</v>
+        <v>643.6544206731355</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>225.4667547437093</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5518,10 +5518,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U17" t="n">
-        <v>1717.224081305859</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V17" t="n">
-        <v>1386.161193962289</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="W17" t="n">
-        <v>1033.392538692174</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="X17" t="n">
-        <v>659.9267804310946</v>
+        <v>1813.742174378966</v>
       </c>
       <c r="Y17" t="n">
-        <v>407.0854511393138</v>
+        <v>1423.602842403155</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C18" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D18" t="n">
-        <v>665.3876658914405</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>388.4940872573506</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>241.9595292842356</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>103.9296417333972</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>161.1406371339194</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2677802593126</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5624,22 +5624,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2222.939999577549</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>490.5215302684225</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>342.6084366860293</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.718489188119</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.718489188119</v>
       </c>
       <c r="H19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X19" t="n">
-        <v>412.6486187827406</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.8560396392105</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.81975253256327</v>
+        <v>1121.76355719849</v>
       </c>
       <c r="C20" t="n">
-        <v>48.81975253256327</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D20" t="n">
-        <v>48.81975253256327</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E20" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F20" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
         <v>48.81975253256327</v>
@@ -5758,13 +5758,13 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T20" t="n">
-        <v>2136.635919435379</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U20" t="n">
-        <v>1882.856225447261</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V20" t="n">
-        <v>1551.793338103691</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="W20" t="n">
-        <v>1199.024682833577</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="X20" t="n">
-        <v>825.5589245724968</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="Y20" t="n">
-        <v>435.419592596685</v>
+        <v>1508.363397262611</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>239.5596775960993</v>
       </c>
       <c r="F21" t="n">
-        <v>239.5596775960993</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5834,22 +5834,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L21" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N21" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O21" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>204.5691346602402</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>204.5691346602402</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
         <v>48.81975253256327</v>
@@ -5934,28 +5934,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581505</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V22" t="n">
-        <v>351.4590821581505</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W22" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X22" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y22" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>776.0479680797255</v>
+        <v>1194.235634009152</v>
       </c>
       <c r="C23" t="n">
-        <v>407.0854511393138</v>
+        <v>825.27311706874</v>
       </c>
       <c r="D23" t="n">
-        <v>48.81975253256328</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="E23" t="n">
-        <v>48.81975253256328</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F23" t="n">
-        <v>48.81975253256328</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
         <v>145.9660485697318</v>
@@ -6007,34 +6007,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V23" t="n">
-        <v>2279.021553650853</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W23" t="n">
-        <v>1926.252898380739</v>
+        <v>2344.440564310165</v>
       </c>
       <c r="X23" t="n">
-        <v>1552.787140119659</v>
+        <v>1970.974806049085</v>
       </c>
       <c r="Y23" t="n">
-        <v>1162.647808143847</v>
+        <v>1580.835474073273</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439335</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628066</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015553</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960998</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298476</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
         <v>2222.939999577549</v>
@@ -6101,10 +6101,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
         <v>1306.011707534488</v>
@@ -6113,7 +6113,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640016</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L25" t="n">
         <v>206.6297039190408</v>
@@ -6177,22 +6177,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U25" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="V25" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="W25" t="n">
-        <v>640.6381696807582</v>
+        <v>123.721849281329</v>
       </c>
       <c r="X25" t="n">
-        <v>451.2607965063331</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y25" t="n">
-        <v>230.468217362803</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C26" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D26" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E26" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M26" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N26" t="n">
         <v>1672.394424063531</v>
@@ -6244,34 +6244,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="U26" t="n">
-        <v>1717.224081305859</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V26" t="n">
-        <v>1386.161193962289</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W26" t="n">
-        <v>1033.392538692174</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="X26" t="n">
-        <v>659.9267804310946</v>
+        <v>729.0173791644045</v>
       </c>
       <c r="Y26" t="n">
-        <v>459.8056573221708</v>
+        <v>338.8780471885927</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.7751048338188</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C27" t="n">
-        <v>814.3220755526918</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D27" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450437</v>
       </c>
       <c r="E27" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395882</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>150.6750155664732</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K27" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L27" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M27" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y27" t="n">
-        <v>1098.160207328955</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>490.5215302684225</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>342.6084366860293</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>342.6084366860293</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>173.5082215094754</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K28" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6405,31 +6405,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>160.9721049000902</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>796.4947224030295</v>
+        <v>1161.83622067797</v>
       </c>
       <c r="C29" t="n">
-        <v>796.4947224030295</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D29" t="n">
-        <v>796.4947224030295</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E29" t="n">
-        <v>796.4947224030295</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F29" t="n">
-        <v>796.4947224030295</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G29" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6481,34 +6481,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T29" t="n">
-        <v>2221.37302195985</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U29" t="n">
-        <v>1967.593327971733</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="V29" t="n">
-        <v>1909.328975998345</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="W29" t="n">
-        <v>1556.560320728231</v>
+        <v>2312.041150978983</v>
       </c>
       <c r="X29" t="n">
-        <v>1183.094562467151</v>
+        <v>1938.575392717903</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.094562467151</v>
+        <v>1548.436060742092</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>922.6086434646021</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C30" t="n">
-        <v>748.1556141834751</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D30" t="n">
-        <v>599.2212045222238</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E30" t="n">
-        <v>439.9837495167684</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F30" t="n">
-        <v>293.4491915436533</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G30" t="n">
-        <v>155.4193039928149</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2384.400479452513</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S30" t="n">
-        <v>2224.002748345386</v>
+        <v>2382.930981407183</v>
       </c>
       <c r="T30" t="n">
-        <v>2224.002748345386</v>
+        <v>2183.569658254351</v>
       </c>
       <c r="U30" t="n">
-        <v>1995.825244415101</v>
+        <v>1955.392154324066</v>
       </c>
       <c r="V30" t="n">
-        <v>1760.673136183358</v>
+        <v>1720.240046092323</v>
       </c>
       <c r="W30" t="n">
-        <v>1506.435779455157</v>
+        <v>1466.002689364122</v>
       </c>
       <c r="X30" t="n">
-        <v>1298.584279249624</v>
+        <v>1258.151189158589</v>
       </c>
       <c r="Y30" t="n">
-        <v>1090.82398048467</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>385.9536814748714</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C31" t="n">
-        <v>385.9536814748714</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D31" t="n">
-        <v>385.9536814748714</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E31" t="n">
-        <v>385.9536814748714</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F31" t="n">
-        <v>385.9536814748714</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G31" t="n">
-        <v>216.8534662983175</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H31" t="n">
-        <v>58.21231385122221</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K31" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L31" t="n">
         <v>206.6297039190408</v>
@@ -6651,22 +6651,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>640.6381696807582</v>
+        <v>485.1268700674343</v>
       </c>
       <c r="U31" t="n">
-        <v>640.6381696807582</v>
+        <v>485.1268700674343</v>
       </c>
       <c r="V31" t="n">
-        <v>385.9536814748714</v>
+        <v>485.1268700674343</v>
       </c>
       <c r="W31" t="n">
-        <v>385.9536814748714</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X31" t="n">
-        <v>385.9536814748714</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y31" t="n">
-        <v>385.9536814748714</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1399.714839975047</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.361007678598</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D32" t="n">
-        <v>764.0953090718475</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E32" t="n">
-        <v>378.3070564736033</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F32" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G32" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J32" t="n">
         <v>145.966048569732</v>
@@ -6727,25 +6727,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2040.094374027287</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>1786.314680039169</v>
+        <v>2187.207932640047</v>
       </c>
       <c r="V32" t="n">
-        <v>1786.314680039169</v>
+        <v>1856.145045296476</v>
       </c>
       <c r="W32" t="n">
-        <v>1786.314680039169</v>
+        <v>1856.145045296476</v>
       </c>
       <c r="X32" t="n">
-        <v>1786.314680039169</v>
+        <v>1482.679287035396</v>
       </c>
       <c r="Y32" t="n">
-        <v>1786.314680039169</v>
+        <v>1482.679287035396</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G33" t="n">
-        <v>93.02511962298431</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H33" t="n">
-        <v>93.02511962298431</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K33" t="n">
         <v>285.1110033225004</v>
@@ -6803,7 +6803,7 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S33" t="n">
         <v>2222.939999577549</v>
@@ -6812,10 +6812,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W33" t="n">
         <v>1306.011707534488</v>
@@ -6824,7 +6824,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K34" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
@@ -6882,28 +6882,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>271.9381101070627</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>271.9381101070627</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U34" t="n">
-        <v>271.9381101070627</v>
+        <v>123.721849281329</v>
       </c>
       <c r="V34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="W34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="X34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1622.047274456592</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="C35" t="n">
-        <v>1622.047274456592</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="D35" t="n">
-        <v>1263.781575849841</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9933232515971</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F35" t="n">
-        <v>467.0074184619895</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
@@ -6943,13 +6943,13 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2040.094374027286</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U35" t="n">
-        <v>1786.314680039169</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.047274456592</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W35" t="n">
-        <v>1622.047274456592</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.047274456592</v>
+        <v>1812.477670817928</v>
       </c>
       <c r="Y35" t="n">
-        <v>1622.047274456592</v>
+        <v>1812.477670817928</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.7751048338188</v>
+        <v>948.0498045074896</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>773.5967752263626</v>
       </c>
       <c r="D36" t="n">
         <v>665.3876658914405</v>
@@ -7040,28 +7040,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2383.337730684675</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T36" t="n">
-        <v>2290.169209714603</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U36" t="n">
-        <v>2061.991705784318</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.839597552575</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.602240824373</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.750740618841</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1849.169209479969</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="C37" t="n">
-        <v>1849.169209479969</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="D37" t="n">
-        <v>1849.169209479969</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="E37" t="n">
-        <v>1849.169209479969</v>
+        <v>335.058361281315</v>
       </c>
       <c r="F37" t="n">
-        <v>1849.169209479969</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G37" t="n">
-        <v>1849.169209479969</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H37" t="n">
-        <v>1849.169209479969</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>2393.032785208463</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="U37" t="n">
-        <v>2103.853697685855</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="V37" t="n">
-        <v>1849.169209479969</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="W37" t="n">
-        <v>1849.169209479969</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="X37" t="n">
-        <v>1849.169209479969</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1849.169209479969</v>
+        <v>633.0880942760439</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>407.0854511393138</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="C38" t="n">
-        <v>407.0854511393138</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="D38" t="n">
-        <v>48.81975253256328</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="E38" t="n">
-        <v>48.81975253256328</v>
+        <v>835.9038449955965</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256328</v>
+        <v>424.9179402059889</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7192,34 +7192,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2190.618379962291</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T38" t="n">
-        <v>1971.003775293977</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U38" t="n">
-        <v>1717.22408130586</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V38" t="n">
-        <v>1386.161193962289</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W38" t="n">
-        <v>1033.392538692175</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X38" t="n">
-        <v>659.926780431095</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y38" t="n">
-        <v>407.0854511393138</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>722.1845715439335</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7315422628066</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D39" t="n">
-        <v>398.7971326015553</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E39" t="n">
-        <v>239.5596775960998</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F39" t="n">
-        <v>93.02511962298476</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
         <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M39" t="n">
         <v>1034.670495654875</v>
@@ -7277,28 +7277,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494433</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.24906426269</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W39" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X39" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y39" t="n">
-        <v>890.3999085640016</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2168.222031820212</v>
+        <v>204.3052166446317</v>
       </c>
       <c r="C40" t="n">
-        <v>1999.285848892305</v>
+        <v>204.3052166446317</v>
       </c>
       <c r="D40" t="n">
-        <v>1849.169209479969</v>
+        <v>204.3052166446317</v>
       </c>
       <c r="E40" t="n">
-        <v>1849.169209479969</v>
+        <v>204.3052166446317</v>
       </c>
       <c r="F40" t="n">
-        <v>1849.169209479969</v>
+        <v>204.3052166446317</v>
       </c>
       <c r="G40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
-        <v>2006.979160866447</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>2136.449771081982</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>2374.023479227557</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V40" t="n">
-        <v>2440.987626628164</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W40" t="n">
-        <v>2440.987626628164</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X40" t="n">
-        <v>2212.998075730146</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="Y40" t="n">
-        <v>2212.998075730146</v>
+        <v>385.9536814748714</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>938.1442229836907</v>
+        <v>1469.545205232354</v>
       </c>
       <c r="C41" t="n">
-        <v>569.181706043279</v>
+        <v>1469.545205232354</v>
       </c>
       <c r="D41" t="n">
-        <v>210.9160074365284</v>
+        <v>1469.545205232354</v>
       </c>
       <c r="E41" t="n">
-        <v>210.9160074365284</v>
+        <v>1083.756952634109</v>
       </c>
       <c r="F41" t="n">
-        <v>210.9160074365284</v>
+        <v>672.7710478445019</v>
       </c>
       <c r="G41" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540045</v>
@@ -7423,13 +7423,13 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
@@ -7444,19 +7444,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>2419.412040628275</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.349153284704</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.349153284704</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X41" t="n">
-        <v>1714.883395023624</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="Y41" t="n">
-        <v>1324.744063047812</v>
+        <v>1856.145045296475</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439335</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628066</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015553</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960998</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F42" t="n">
-        <v>221.5857653620315</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
         <v>112.9860412505444</v>
@@ -7502,40 +7502,40 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494433</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.24906426269</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640016</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2440.987626628164</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="C43" t="n">
-        <v>2440.987626628164</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="D43" t="n">
-        <v>2440.987626628164</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="E43" t="n">
-        <v>2440.987626628164</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="F43" t="n">
-        <v>2294.097679130254</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="G43" t="n">
-        <v>2124.9974639537</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="H43" t="n">
-        <v>1966.356311506605</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K43" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L43" t="n">
-        <v>2006.979160866447</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>2136.449771081982</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>2374.023479227557</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>2440.987626628164</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S43" t="n">
-        <v>2440.987626628164</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T43" t="n">
-        <v>2440.987626628164</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U43" t="n">
-        <v>2440.987626628164</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="V43" t="n">
-        <v>2440.987626628164</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="W43" t="n">
-        <v>2440.987626628164</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="X43" t="n">
-        <v>2440.987626628164</v>
+        <v>198.5593213595487</v>
       </c>
       <c r="Y43" t="n">
-        <v>2440.987626628164</v>
+        <v>198.5593213595487</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>540.4033113775685</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="C44" t="n">
-        <v>540.4033113775685</v>
+        <v>1565.746325799387</v>
       </c>
       <c r="D44" t="n">
-        <v>540.4033113775685</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E44" t="n">
-        <v>540.4033113775685</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F44" t="n">
-        <v>540.4033113775685</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G44" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7660,7 +7660,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
@@ -7675,25 +7675,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T44" t="n">
-        <v>1971.003775293977</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U44" t="n">
-        <v>1717.224081305859</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V44" t="n">
-        <v>1386.161193962289</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W44" t="n">
-        <v>1033.392538692174</v>
+        <v>2019.12837262474</v>
       </c>
       <c r="X44" t="n">
-        <v>659.9267804310946</v>
+        <v>2019.12837262474</v>
       </c>
       <c r="Y44" t="n">
-        <v>540.4033113775685</v>
+        <v>1952.346165863509</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E45" t="n">
-        <v>239.5596775960993</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F45" t="n">
-        <v>114.9862139017798</v>
+        <v>253.4228507301105</v>
       </c>
       <c r="G45" t="n">
-        <v>114.9862139017798</v>
+        <v>115.3929631792721</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7754,25 +7754,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>365.8330612915103</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="C46" t="n">
-        <v>365.8330612915103</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="D46" t="n">
-        <v>365.8330612915103</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="E46" t="n">
-        <v>217.9199677091171</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="F46" t="n">
-        <v>217.9199677091171</v>
+        <v>204.5691346602402</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>593.5702941683318</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>593.5702941683318</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>365.8330612915103</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>365.8330612915103</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V46" t="n">
-        <v>365.8330612915103</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W46" t="n">
-        <v>365.8330612915103</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X46" t="n">
-        <v>365.8330612915103</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="Y46" t="n">
-        <v>365.8330612915103</v>
+        <v>351.4590821581505</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>74.42821185443506</v>
+        <v>74.42821185443489</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
-        <v>74.42821185443489</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003852</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617152</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003857</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617106</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443489</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003852</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>269.8648801276772</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.544191705360333</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.74148333600759</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>105.1308741609316</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>133.3440246538288</v>
       </c>
       <c r="F13" t="n">
-        <v>74.16824395813761</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23472,13 +23472,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>335.9724599275959</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>214.3260498237919</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.745991555936655</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>94.0970413291581</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>111.6152899422107</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>151.311898712595</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>135.9250226571906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>50.97476563682361</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>66.55691803568379</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38.22605594635652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>11.62499163362415</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>98.99468449413416</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>95.57612995401141</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>13.32185961795371</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H21" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>2.862852616224188</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24174,7 +24174,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>103.8954701851124</v>
       </c>
       <c r="S22" t="n">
         <v>213.8779974765521</v>
@@ -24183,13 +24183,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -24265,10 +24265,10 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>167.4058462225971</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>322.0590697685708</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581273</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24417,10 +24417,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>38.22605594635633</v>
+        <v>151.5565796077591</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>95.57612995401138</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.005789270132</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>188.1180267782191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58.24193217968244</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.69684554207835</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0547409226243</v>
+        <v>33.61315663548126</v>
       </c>
       <c r="I28" t="n">
         <v>137.955174638333</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
         <v>213.8779974765521</v>
@@ -24657,10 +24657,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>141.1068144799763</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>270.0705500164814</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>289.9836505707005</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.052121280159156</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.3910720113367</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6565389328607</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
         <v>52.22830032617343</v>
@@ -24891,16 +24891,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>71.50367393086259</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>117.292210090657</v>
       </c>
       <c r="C32" t="n">
-        <v>90.69259779752269</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24967,22 +24967,22 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>127.2750392816562</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>63.80209885705494</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617343</v>
@@ -25122,19 +25122,19 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>31.25046932507357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>165.1275269433838</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>216.1666000962028</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>40.31804732306587</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>105.1308741609316</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
@@ -25332,7 +25332,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25365,13 +25365,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>177.9845675425497</v>
+        <v>217.9852858973861</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>41.66858347344055</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>135.9250226571901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>92.88627525581273</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.5036967111019</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>13.47860355384066</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25608,13 +25608,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>122.4864378129423</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>229.8820669083462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>127.2750392816563</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.7677424222417</v>
       </c>
       <c r="I43" t="n">
-        <v>21.93994363196381</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25833,7 +25833,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>213.8779974765521</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>267.9097042930628</v>
+        <v>320.1235539624351</v>
       </c>
     </row>
     <row r="45">
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>21.74148333600759</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>39.6260774054074</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>13.21732471838823</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26070,16 +26070,16 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>104.5378647441042</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>649976.7217260575</v>
+        <v>649976.7217260574</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>649976.7217260576</v>
+        <v>649976.7217260574</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649976.7217260576</v>
+        <v>649976.7217260575</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649976.7217260574</v>
+        <v>649976.7217260576</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649976.7217260576</v>
+        <v>649976.7217260575</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649976.7217260574</v>
+        <v>649976.7217260575</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649976.7217260576</v>
+        <v>649976.7217260577</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649976.7217260575</v>
+        <v>649976.7217260574</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649976.7217260574</v>
+        <v>649976.7217260575</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
         <v>325370.8721489955</v>
@@ -26331,19 +26331,19 @@
         <v>325370.8721489956</v>
       </c>
       <c r="H2" t="n">
+        <v>325370.8721489957</v>
+      </c>
+      <c r="I2" t="n">
+        <v>325370.8721489956</v>
+      </c>
+      <c r="J2" t="n">
+        <v>325370.8721489956</v>
+      </c>
+      <c r="K2" t="n">
+        <v>325370.8721489957</v>
+      </c>
+      <c r="L2" t="n">
         <v>325370.8721489955</v>
-      </c>
-      <c r="I2" t="n">
-        <v>325370.8721489955</v>
-      </c>
-      <c r="J2" t="n">
-        <v>325370.8721489955</v>
-      </c>
-      <c r="K2" t="n">
-        <v>325370.8721489955</v>
-      </c>
-      <c r="L2" t="n">
-        <v>325370.8721489954</v>
       </c>
       <c r="M2" t="n">
         <v>325370.8721489955</v>
@@ -26352,10 +26352,10 @@
         <v>325370.8721489955</v>
       </c>
       <c r="O2" t="n">
-        <v>325370.8721489956</v>
+        <v>325370.8721489958</v>
       </c>
       <c r="P2" t="n">
-        <v>325370.8721489956</v>
+        <v>325370.8721489957</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26490,25 +26490,25 @@
         <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="J5" t="n">
         <v>44136.03802033843</v>
       </c>
-      <c r="J5" t="n">
-        <v>44136.03802033842</v>
-      </c>
       <c r="K5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="O5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="P5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59346.56577618182</v>
+        <v>59346.56577618188</v>
       </c>
       <c r="C6" t="n">
-        <v>140115.9973077296</v>
+        <v>140115.9973077297</v>
       </c>
       <c r="D6" t="n">
         <v>140115.9973077296</v>
       </c>
       <c r="E6" t="n">
-        <v>-115013.3910546825</v>
+        <v>-121982.3156284149</v>
       </c>
       <c r="F6" t="n">
-        <v>254421.9080780975</v>
+        <v>247452.9835043653</v>
       </c>
       <c r="G6" t="n">
-        <v>254421.9080780977</v>
+        <v>247452.9835043653</v>
       </c>
       <c r="H6" t="n">
-        <v>254421.9080780975</v>
+        <v>247452.9835043655</v>
       </c>
       <c r="I6" t="n">
-        <v>254421.9080780975</v>
+        <v>247452.9835043653</v>
       </c>
       <c r="J6" t="n">
-        <v>191361.9654789913</v>
+        <v>184393.0409052592</v>
       </c>
       <c r="K6" t="n">
-        <v>254421.9080780975</v>
+        <v>247452.9835043655</v>
       </c>
       <c r="L6" t="n">
-        <v>254421.9080780974</v>
+        <v>247452.9835043652</v>
       </c>
       <c r="M6" t="n">
-        <v>162407.6627970045</v>
+        <v>155438.7382232722</v>
       </c>
       <c r="N6" t="n">
-        <v>254421.9080780975</v>
+        <v>247452.9835043652</v>
       </c>
       <c r="O6" t="n">
-        <v>254421.9080780976</v>
+        <v>247452.9835043655</v>
       </c>
       <c r="P6" t="n">
-        <v>254421.9080780976</v>
+        <v>247452.9835043655</v>
       </c>
     </row>
   </sheetData>
@@ -26810,25 +26810,25 @@
         <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="J4" t="n">
         <v>610.246906657041</v>
       </c>
-      <c r="J4" t="n">
-        <v>610.2469066570409</v>
-      </c>
       <c r="K4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="O4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="P4" t="n">
         <v>610.2469066570409</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27393,16 +27393,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>319.8405561641575</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>97.05302605402983</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>87.3538788638096</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.9342148012196</v>
       </c>
     </row>
     <row r="4">
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4421264957783</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>255.9619101194022</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>11.52642163877024</v>
+        <v>123.2171769846312</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>171.2136902881097</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27949,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27985,10 +27985,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>167.2195530327633</v>
       </c>
       <c r="U9" t="n">
-        <v>119.9102743098572</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>107.6671775926096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
-        <v>48.64100594280298</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>48.64100594280286</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K18" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35980,10 +35980,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>316.9982669508155</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
@@ -36448,7 +36448,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891457</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K27" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
@@ -36691,10 +36691,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>316.9982669508155</v>
+        <v>285.636118211264</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009466</v>
@@ -36922,7 +36922,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891411</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
-        <v>238.6780311009466</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
@@ -37870,16 +37870,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>316.9982669508155</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>369.2231584563177</v>
       </c>
       <c r="P44" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329588</v>
       </c>
       <c r="Q44" t="n">
         <v>130.0651205780292</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L45" t="n">
         <v>382.95671022767</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
